--- a/public/template_siswa.xlsx
+++ b/public/template_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kysti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\New folder\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944872C9-DBE6-4F12-AD05-B6C1CCD83823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEF22F1-5A82-48E9-BC41-F667CD41B8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F467A4A8-54FD-4F0E-9F5E-6F1C32974BB2}"/>
   </bookViews>
@@ -143,7 +143,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,9 +156,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -480,7 +477,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +496,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -522,7 +519,7 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2">
@@ -545,7 +542,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2">
@@ -568,7 +565,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2">
